--- a/experiment result/4096_0.2_40_zs40_kappa_lp.xlsx
+++ b/experiment result/4096_0.2_40_zs40_kappa_lp.xlsx
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.004315159520611867</v>
+        <v>0.004312655618369877</v>
       </c>
     </row>
     <row r="11">
